--- a/BatchResults.xlsx
+++ b/BatchResults.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PGO\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04839E3B-4B57-4315-AB42-F914EE276314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="7965" yWindow="1740" windowWidth="22875" windowHeight="12855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="52">
   <si>
     <t>Instance</t>
   </si>
@@ -82,6 +88,9 @@
     <t>data\Inst18.xlsx</t>
   </si>
   <si>
+    <t>data\Inst19.xlsx</t>
+  </si>
+  <si>
     <t>optimal</t>
   </si>
   <si>
@@ -89,13 +98,91 @@
   </si>
   <si>
     <t>0.01%</t>
+  </si>
+  <si>
+    <t>data\Inst20.xlsx</t>
+  </si>
+  <si>
+    <t>maxTimeLimit</t>
+  </si>
+  <si>
+    <t>0.13%</t>
+  </si>
+  <si>
+    <t>data\Inst21.xlsx</t>
+  </si>
+  <si>
+    <t>data\Inst22.xlsx</t>
+  </si>
+  <si>
+    <t>data\Inst23.xlsx</t>
+  </si>
+  <si>
+    <t>data\Inst24.xlsx</t>
+  </si>
+  <si>
+    <t>data\Inst25.xlsx</t>
+  </si>
+  <si>
+    <t>data\Inst26.xlsx</t>
+  </si>
+  <si>
+    <t>data\Inst27.xlsx</t>
+  </si>
+  <si>
+    <t>data\Inst28.xlsx</t>
+  </si>
+  <si>
+    <t>data\Inst29.xlsx</t>
+  </si>
+  <si>
+    <t>data\Inst30.xlsx</t>
+  </si>
+  <si>
+    <t>data\Inst31.xlsx</t>
+  </si>
+  <si>
+    <t>data\Inst32.xlsx</t>
+  </si>
+  <si>
+    <t>0.02%</t>
+  </si>
+  <si>
+    <t>data\Inst33.xlsx</t>
+  </si>
+  <si>
+    <t>data\Inst34.xlsx</t>
+  </si>
+  <si>
+    <t>data\Inst35.xlsx</t>
+  </si>
+  <si>
+    <t>data\Inst36.xlsx</t>
+  </si>
+  <si>
+    <t>data\Inst37.xlsx</t>
+  </si>
+  <si>
+    <t>data\Inst38.xlsx</t>
+  </si>
+  <si>
+    <t>0.03%</t>
+  </si>
+  <si>
+    <t>data\Inst39.xlsx</t>
+  </si>
+  <si>
+    <t>data\Inst40.xlsx</t>
+  </si>
+  <si>
+    <t>2.89%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,13 +245,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -202,7 +297,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -236,6 +331,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -270,9 +366,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -445,14 +542,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -466,256 +571,564 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2">
         <v>93162.83333333327</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3">
-        <v>8432858.189999999</v>
+        <v>8432858.1899999995</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4">
-        <v>113043.2066666666</v>
+        <v>113043.20666666661</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5">
-        <v>10481078.46333333</v>
+        <v>10481078.463333329</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6">
-        <v>150230.0933333336</v>
+        <v>150230.09333333361</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7">
-        <v>13879976.88</v>
+        <v>13879976.880000001</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8">
-        <v>77921.52333333403</v>
+        <v>77921.523333334029</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9">
-        <v>6720387.350000046</v>
+        <v>6720387.3500000462</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10">
-        <v>81969.73333333489</v>
+        <v>81969.733333334894</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11">
-        <v>7116262.006666745</v>
+        <v>7116262.0066667451</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12">
         <v>123396.350000001</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13">
         <v>10740708.60333341</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14">
-        <v>132943.023333334</v>
+        <v>132943.02333333399</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15">
         <v>11508037.06000006</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16">
-        <v>139304.696666669</v>
+        <v>139304.69666666901</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17">
-        <v>12156075.79333344</v>
+        <v>12156075.793333439</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C18">
         <v>149136.0233333339</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C19">
         <v>13070337.38666668</v>
       </c>
       <c r="D19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20">
+        <v>73119.060000000856</v>
+      </c>
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21">
+        <v>5278420.7566667013</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22">
+        <v>143806.41000000149</v>
+      </c>
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>12571591.08333339</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>84312.280000001105</v>
+      </c>
+      <c r="D24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>7083842.5166667029</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26">
+        <v>104591.406666667</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27">
+        <v>9236564.920000108</v>
+      </c>
+      <c r="D27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28">
+        <v>95858.476666667484</v>
+      </c>
+      <c r="D28" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29">
+        <v>8097567.1366667245</v>
+      </c>
+      <c r="D29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30">
+        <v>145847.93000000209</v>
+      </c>
+      <c r="D30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31">
+        <v>12525961.040000079</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32">
+        <v>169945.77666667089</v>
+      </c>
+      <c r="D32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33">
+        <v>14771496.200000109</v>
+      </c>
+      <c r="D33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34">
+        <v>114751.5966666687</v>
+      </c>
+      <c r="D34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35">
+        <v>9713487.2966667674</v>
+      </c>
+      <c r="D35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36">
+        <v>169698.9599999972</v>
+      </c>
+      <c r="D36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37">
+        <v>14692455.853333389</v>
+      </c>
+      <c r="D37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38">
+        <v>170038.44833333741</v>
+      </c>
+      <c r="D38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39">
+        <v>14632321.97333342</v>
+      </c>
+      <c r="D39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40">
+        <v>455739.05666666123</v>
+      </c>
+      <c r="D40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41">
+        <v>41884849.214999788</v>
+      </c>
+      <c r="D41" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
